--- a/Assets/_TableResources/Table_Shot.xlsx
+++ b/Assets/_TableResources/Table_Shot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thdck\Desktop\Projects\ShootingGame\Assets\_TableResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A90EC0-4529-4D26-8F34-00D9C5D1E21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C9D914-6320-4A8A-96E6-AE81D1702DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="2750" windowWidth="14340" windowHeight="7750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="1850" windowWidth="17330" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shots" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,16 @@
   <si>
     <t>Shot_Capacity</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardShot1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardShot2</t>
+  </si>
+  <si>
+    <t>WizardShot3</t>
   </si>
 </sst>
 </file>
@@ -369,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -410,6 +420,48 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_TableResources/Table_Shot.xlsx
+++ b/Assets/_TableResources/Table_Shot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thdck\Desktop\Projects\ShootingGame\Assets\_TableResources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C9D914-6320-4A8A-96E6-AE81D1702DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F8B11C-77B6-43C8-A134-FBCB3CB98F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="1850" windowWidth="17330" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2000" yWindow="1420" windowWidth="16000" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shots" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,22 +39,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shot_Robot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shot_Capacity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WizardShot1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WizardShot2</t>
-  </si>
-  <si>
-    <t>WizardShot3</t>
+    <t>ShotRobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WizardShot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Projectile2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -379,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -390,9 +400,11 @@
     <col min="2" max="2" width="14.58203125" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="19.58203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9140625" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,10 +415,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -414,13 +432,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
+        <v>1001</v>
+      </c>
+      <c r="E2">
+        <v>2001</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -428,13 +452,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1002</v>
+      </c>
+      <c r="E3">
+        <v>2002</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -442,13 +472,19 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4">
+        <v>1003</v>
+      </c>
+      <c r="E4">
+        <v>2003</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -456,9 +492,15 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5">
+        <v>1004</v>
+      </c>
+      <c r="E5">
+        <v>2004</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
     </row>
